--- a/biology/Botanique/Curculigo/Curculigo.xlsx
+++ b/biology/Botanique/Curculigo/Curculigo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcoligo est un genre de plantes de la famille des Hypoxidaceae.
 </t>
@@ -511,13 +523,51 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ITIS :
 Curculigo capitulata (Lour.) Kuntze
 Curculigo scorzonerifolia (Lam.) Baker
-Selon The Plant List[3] :
-Espèces valides
+Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Curculigo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculigo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d’espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Curculigo annamitica Gagnep.
 Curculigo breviscapa S.C.Chen
 Curculigo conoc Gagnep.
@@ -533,7 +583,43 @@
 Curculigo seychellensis Bojer ex Baker
 Curculigo sinensis S.C.Chen
 Curculigo tonkinensis Gagnep.
-Taxons non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Curculigo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curculigo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d’espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons non résolus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Curculigo macrandra Ridl.
 Curculigo rumphiana Schult. &amp; Schult.f.
 </t>
